--- a/Assets/Resources/BasicData/character.xlsx
+++ b/Assets/Resources/BasicData/character.xlsx
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1111,6 +1111,9 @@
       <c r="B2" t="s">
         <v>16</v>
       </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
       <c r="D2">
         <v>200</v>
       </c>
@@ -1157,6 +1160,9 @@
       </c>
       <c r="B3" t="s">
         <v>21</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
       </c>
       <c r="D3">
         <v>200</v>

--- a/Assets/Resources/BasicData/character.xlsx
+++ b/Assets/Resources/BasicData/character.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -77,6 +77,9 @@
     <t>race</t>
   </si>
   <si>
+    <t>equipment</t>
+  </si>
+  <si>
     <t>Laya</t>
   </si>
   <si>
@@ -90,6 +93,9 @@
   </si>
   <si>
     <t>Human</t>
+  </si>
+  <si>
+    <t>weapon:10001-head:10002-body:10003-shoe:10004</t>
   </si>
   <si>
     <t>Tina</t>
@@ -1029,10 +1035,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1052,9 +1058,10 @@
     <col min="13" max="13" width="12.625" customWidth="1"/>
     <col min="14" max="14" width="11.125" customWidth="1"/>
     <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="50.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1103,13 +1110,16 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -1139,27 +1149,30 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1189,16 +1202,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
         <v>21</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/BasicData/character.xlsx
+++ b/Assets/Resources/BasicData/character.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>Warrior</t>
+  </si>
+  <si>
+    <t>YuNa</t>
+  </si>
+  <si>
+    <t>允娜</t>
+  </si>
+  <si>
+    <t>古代村的战士</t>
   </si>
 </sst>
 </file>
@@ -1035,13 +1044,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -1214,6 +1223,53 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
